--- a/TestCases/Admin_Features.xlsx
+++ b/TestCases/Admin_Features.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\OneDrive\Desktop\MyFinalProject\sdd13\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66bacb6e4630ab98/Desktop/MyFinalProject/sdd13/TestCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB82BBE3-E2C5-4D6B-986A-D019114383DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{FB82BBE3-E2C5-4D6B-986A-D019114383DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55229FC1-9481-4E98-9EAD-CB323E5D2DDF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8E6B9CF7-4F56-4E0B-8BC4-83386C502B02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E6B9CF7-4F56-4E0B-8BC4-83386C502B02}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Patient" sheetId="1" r:id="rId1"/>
     <sheet name="Add Staff" sheetId="2" r:id="rId2"/>
     <sheet name="Manage Booking" sheetId="3" r:id="rId3"/>
+    <sheet name="Get Patient and Doctor list" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -173,6 +174,45 @@
   </si>
   <si>
     <t>The admin cross-verified the patient details, retrieved the patient_id inorder to book the appointment.</t>
+  </si>
+  <si>
+    <t>AC_010</t>
+  </si>
+  <si>
+    <t>Get Staff, Staff type is Doctor</t>
+  </si>
+  <si>
+    <t>Get Staff</t>
+  </si>
+  <si>
+    <t>Doctors List should be retrieved  Successfully.</t>
+  </si>
+  <si>
+    <t>Doctors List is retrieved  Successfully.</t>
+  </si>
+  <si>
+    <t>AC_011</t>
+  </si>
+  <si>
+    <t>Get Staff, Staff type is Nurse</t>
+  </si>
+  <si>
+    <t>Nurse List should be retrieved  Successfully.</t>
+  </si>
+  <si>
+    <t>AC_012</t>
+  </si>
+  <si>
+    <t>Get Patient List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Patient </t>
+  </si>
+  <si>
+    <t>Patient List should be retrieved successfully</t>
+  </si>
+  <si>
+    <t>Patient List is retrieved successfully</t>
   </si>
 </sst>
 </file>
@@ -215,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E66D32-97F8-40CA-8857-74F912AC01E0}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +731,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066A355E-ACE6-4836-8DB5-D10DFEA5A1A9}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,4 +926,106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D349F05D-D13E-4CE6-A901-51A5DE255AFE}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>